--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3537484.414905619</v>
+        <v>3534986.67955517</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7957868.264493329</v>
+        <v>7957868.264493327</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.439852654842702</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.331086635932</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>108.5623984320926</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369122</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370734</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353346</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>250.1901789092337</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>13.55798963111228</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.5885151114218</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775191</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>172.4062800422288</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.2468486830498</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>79.13107494872602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>103.5168579644462</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>270.7856227119594</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>114.9296009985463</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.4189382090671</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.79728545481229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560506</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4404770188092</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>29.24923305751711</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.54490042791206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
-        <v>41.02686156550363</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>10.63412424768482</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.8146543619969</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
-        <v>161.7400393421043</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>126.4643665640119</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>106.1949878935058</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.005411543595</v>
+        <v>1284.702229877256</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.005411543595</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="D2" t="n">
         <v>915.7397129368445</v>
@@ -4325,55 +4325,55 @@
         <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961289</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512384</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776284</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>1189.689611183911</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1817.642155105534</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>2008.150174978303</v>
+        <v>1632.597796005106</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.70623472528</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263124</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.045976980644</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980644</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.332377439302</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2368.673389124057</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2368.673389124057</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>2037.610501780487</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2037.610501780487</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>1664.144743519407</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1274.005411543595</v>
+        <v>1287.166727508411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507485</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961289</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961289</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>328.0414482604605</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>462.7799001476301</v>
+        <v>670.7564150061195</v>
       </c>
       <c r="M3" t="n">
-        <v>1100.418199582519</v>
+        <v>1308.394714441008</v>
       </c>
       <c r="N3" t="n">
-        <v>1752.592078885228</v>
+        <v>1960.568593743717</v>
       </c>
       <c r="O3" t="n">
-        <v>2299.298318846232</v>
+        <v>2507.274833704721</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257508</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980644</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371014</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375423</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.486562480562</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.347004849372</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.19489661763</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.2227106352323</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="C4" t="n">
-        <v>334.2865277073254</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>334.2865277073254</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>334.2865277073254</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>334.2865277073254</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>334.2865277073254</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>179.9446287407985</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961289</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131526</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039135</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.796090285612</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066376</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249434</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.16708335132</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634893</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>912.8607263634893</v>
+        <v>836.1686462697003</v>
       </c>
       <c r="T4" t="n">
-        <v>912.8607263634893</v>
+        <v>610.4975168037859</v>
       </c>
       <c r="U4" t="n">
-        <v>912.8607263634893</v>
+        <v>610.4975168037859</v>
       </c>
       <c r="V4" t="n">
-        <v>912.8607263634893</v>
+        <v>355.813028597899</v>
       </c>
       <c r="W4" t="n">
-        <v>912.8607263634893</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="X4" t="n">
-        <v>684.871175465472</v>
+        <v>66.39585856093839</v>
       </c>
       <c r="Y4" t="n">
-        <v>684.871175465472</v>
+        <v>66.39585856093839</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1053.720158398189</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="C5" t="n">
-        <v>684.7576414577775</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="D5" t="n">
-        <v>510.6098838393645</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E5" t="n">
-        <v>510.6098838393645</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4568,16 +4568,16 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>964.3339206741936</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1596.051731657505</v>
+        <v>1063.416644199549</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
         <v>1960.554969866447</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2166.554411993505</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2166.554411993505</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.785756723391</v>
+        <v>1926.910096138733</v>
       </c>
       <c r="X5" t="n">
-        <v>1440.319998462311</v>
+        <v>1553.444337877653</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.319998462311</v>
+        <v>1163.305005901841</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686615</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>132.6312982756997</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>132.6312982756997</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>132.6312982756997</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V7" t="n">
-        <v>797.9511127930708</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W7" t="n">
-        <v>508.5339427561102</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X7" t="n">
-        <v>280.5443918580929</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1858.306804940709</v>
+        <v>1050.180666486499</v>
       </c>
       <c r="C8" t="n">
-        <v>1858.306804940709</v>
+        <v>681.2181495460875</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.785973918528</v>
+        <v>681.2181495460875</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.997721320284</v>
+        <v>295.4298969478432</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>288.4843961986398</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4817,7 +4817,7 @@
         <v>2011.628270704848</v>
       </c>
       <c r="O8" t="n">
-        <v>2279.135690956215</v>
+        <v>2181.797296021808</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4832,22 +4832,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>1440.319998462311</v>
       </c>
       <c r="Y8" t="n">
-        <v>2244.906645004831</v>
+        <v>1050.180666486499</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>155.3912799413352</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>484.8196842471451</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6702790690885</v>
+        <v>989.1812241132636</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.215628536193</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N9" t="n">
-        <v>1463.872370188858</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.3605868844721</v>
+        <v>179.3867157103877</v>
       </c>
       <c r="C10" t="n">
-        <v>371.4244039565652</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>407.376266608405</v>
       </c>
       <c r="W10" t="n">
-        <v>763.218430961997</v>
+        <v>407.376266608405</v>
       </c>
       <c r="X10" t="n">
-        <v>763.218430961997</v>
+        <v>179.3867157103877</v>
       </c>
       <c r="Y10" t="n">
-        <v>722.0090517147119</v>
+        <v>179.3867157103877</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057235</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778168</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654812</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830883</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851781</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2412.174722955201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2192.573257978142</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1903.49803132234</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116453</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079493</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079493</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935963</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797183</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784055</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504987</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381631</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557701</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808645</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,25 +5522,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273895</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792906</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433897</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673184</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168252</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543134</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536373</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257305</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.815803413395</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.902709831002</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524073</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868271</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662384</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625424</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727407</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583877</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206038</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>620.823046892697</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803613</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000581</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.36670959104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.18982469239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508433</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516141</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784055</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504987</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381631</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557701</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516141</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516141</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000582</v>
@@ -6379,16 +6379,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.3929232910542</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121294</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.5010142286973</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>748.5648313007904</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>598.4481918884546</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>450.5350983060615</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>303.6451508081511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>303.6451508081511</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,16 +7412,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,19 +7491,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7985,19 +7985,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>239.2643113182427</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>110.9380614276608</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872757</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.7024051015142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>38.55154167324767</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579961</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>182.0175083429755</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>157.2150585937767</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8465,16 +8465,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>98.32161104485604</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>98.3216110448561</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>109.9608419513449</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>360.5859288704241</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.695103855686812e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.5858089828353</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012156</v>
+        <v>37.12601365260455</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.0397529241826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
-        <v>176.3785887617845</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.7713260796033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241825</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
-        <v>5.506781756523566</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>13.83034628221198</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>40.23897475306333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132552</v>
@@ -26329,19 +26329,19 @@
         <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
@@ -26350,10 +26350,10 @@
         <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918882</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008499402</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765841</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.534193544667279e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002809</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909051</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707566</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707526</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707474</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707485</v>
+        <v>6897.424496707323</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707466</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707463</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707416</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670738</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707366</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707383</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707366</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051738</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305384.5121288482</v>
+        <v>-305384.5121288475</v>
       </c>
       <c r="C6" t="n">
-        <v>478047.4998568685</v>
+        <v>478047.4998568681</v>
       </c>
       <c r="D6" t="n">
-        <v>482953.7468653676</v>
+        <v>482953.7468653679</v>
       </c>
       <c r="E6" t="n">
-        <v>-137097.6968839436</v>
+        <v>-137132.4348093793</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926404</v>
+        <v>638555.9124672048</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.6503926407</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926406</v>
+        <v>638555.9124672054</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="J6" t="n">
-        <v>466229.6579923595</v>
+        <v>466194.9200669244</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.6503926406</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="M6" t="n">
-        <v>510513.0535769272</v>
+        <v>510478.3156514914</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.912467205</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.167741930834099e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225503</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26744,13 +26744,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451611</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>658.7614942451606</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.167741930834099e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225503</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915514736</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036082</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451611</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451611</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.167741930834099e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451611</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>380.2939890086379</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916413</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>104.1842811730047</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.50480425168773</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.504804251685897</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>153.6888314675155</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>15.97022679829884</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>182.2767615784541</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>53.99412003436316</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>73.58102172050653</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>101.8490239356724</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>83.89741890872352</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>297.9873029473904</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956074</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>177.7873678972825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.957994309264026e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-5.105708987335293e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31042,40 +31042,40 @@
         <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.2120929395676</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447387</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683756</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984522</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844688</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451704</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024189</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105527</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193699</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645655</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602333</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031706</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
         <v>10.34916995903402</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682467</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111751</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770774</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
         <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555192</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305505</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102899</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704982</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808499</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489528</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
         <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910967</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820282</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908712</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753074</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942304</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577942</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753765</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892086</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
         <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646949</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934104</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308983</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983904</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435673</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780509</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776939</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472178</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026205</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139845</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302386</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171366</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>602.4605829984183</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>671.9287955253233</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181837</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391499</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>346.9084613860368</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>679.7882761221643</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137631</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246364</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>554.979125864932</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107301</v>
+        <v>184.7819654178975</v>
       </c>
       <c r="N2" t="n">
-        <v>192.432343305828</v>
+        <v>431.6966546240705</v>
       </c>
       <c r="O2" t="n">
-        <v>168.2384441888659</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>219.6761853917612</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500207</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>278.1217461826744</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>136.0994463506763</v>
+        <v>174.6509880239239</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382715</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451611</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.228525213135</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>107.5744923346226</v>
+        <v>107.5744923346225</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859965</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055957</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
         <v>185.255503425011</v>
@@ -34866,16 +34866,16 @@
         <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101269</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124301</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084608</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6392725961107</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>322.7535243442413</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>353.5122433331529</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
@@ -35021,10 +35021,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35185,10 +35185,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2095154054212</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>210.1744648322566</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.7276367694165</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7094770206874</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579416</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317265</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.118870915085</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>529.7947616033049</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.8925903961654</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558165</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>212.9340539717066</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>548.4465640388311</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
